--- a/dataset_excel/aprox_rotonda_test.xlsx
+++ b/dataset_excel/aprox_rotonda_test.xlsx
@@ -1128,7 +1128,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>aproxima rotonda</t>
+          <t>aproximo rotonda</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
